--- a/LC刷题.xlsx
+++ b/LC刷题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiape\Desktop\lc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5862A32-65D8-4019-A2DE-C9CEFB76E16B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27B57BA-0DFE-4E26-AC87-63970733551B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="2775" windowWidth="28800" windowHeight="15435" xr2:uid="{45351EF4-170C-4D96-B61D-144DED207A34}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{45351EF4-170C-4D96-B61D-144DED207A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>4. Median of Two Sorted Arrays</t>
   </si>
@@ -424,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2611157A-AFFE-4C1C-B1E5-53BDEDCE3D9F}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -480,13 +480,25 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44301</v>
+      </c>
+      <c r="B5" s="1">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{AA694156-F3A5-42D5-A037-0E4F1546BAB0}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{2DFB80FD-4B11-4837-ADA3-BC68502FCDF2}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{3A40AE37-931D-44E4-8F12-ECF5F04C2B9C}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://leetcode.com/problems/insertion-sort-list/solution/" xr:uid="{16DE6ADF-3E17-4653-B280-7747D71F8AD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
--- a/LC刷题.xlsx
+++ b/LC刷题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiape\Desktop\lc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27B57BA-0DFE-4E26-AC87-63970733551B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB2CE07-5C70-4D91-8E6C-7F3188FECEC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{45351EF4-170C-4D96-B61D-144DED207A34}"/>
+    <workbookView xWindow="10665" yWindow="3720" windowWidth="28800" windowHeight="15435" xr2:uid="{45351EF4-170C-4D96-B61D-144DED207A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>4. Median of Two Sorted Arrays</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>看答案</t>
+  </si>
+  <si>
+    <t>看解析</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2611157A-AFFE-4C1C-B1E5-53BDEDCE3D9F}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,14 +494,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44307</v>
+      </c>
+      <c r="B6" s="1">
+        <v>285</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{AA694156-F3A5-42D5-A037-0E4F1546BAB0}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{2DFB80FD-4B11-4837-ADA3-BC68502FCDF2}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{3A40AE37-931D-44E4-8F12-ECF5F04C2B9C}"/>
     <hyperlink ref="B5" r:id="rId4" display="https://leetcode.com/problems/insertion-sort-list/solution/" xr:uid="{16DE6ADF-3E17-4653-B280-7747D71F8AD1}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://leetcode.com/problems/inorder-successor-in-bst/" xr:uid="{9BDFD782-4B05-4444-BBCB-819BEA907D11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>